--- a/public/import/dayli manto.xlsx
+++ b/public/import/dayli manto.xlsx
@@ -95,22 +95,22 @@
     <t>16:30</t>
   </si>
   <si>
-    <t>2023-07-10</t>
-  </si>
-  <si>
-    <t>2023-07-11</t>
-  </si>
-  <si>
-    <t>2023-07-12</t>
-  </si>
-  <si>
-    <t>2023-07-13</t>
-  </si>
-  <si>
-    <t>2023-07-14</t>
-  </si>
-  <si>
-    <t>2023-07-15</t>
+    <t>2023-09-11</t>
+  </si>
+  <si>
+    <t>2023-09-12</t>
+  </si>
+  <si>
+    <t>2023-09-13</t>
+  </si>
+  <si>
+    <t>2023-09-14</t>
+  </si>
+  <si>
+    <t>2023-09-15</t>
+  </si>
+  <si>
+    <t>2023-09-16</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A48" sqref="A48:A55"/>
     </sheetView>
   </sheetViews>
